--- a/medicine/Pharmacie/Vasoconstricteur/Vasoconstricteur.xlsx
+++ b/medicine/Pharmacie/Vasoconstricteur/Vasoconstricteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vasoconstricteur est une substance qui agit de façon à rétrécir les vaisseaux sanguins, c'est-à-dire à rétrécir leur lumen. Les vasoconstricteurs sont utilisés cliniquement pour accroître la pression sanguine ou réduire localement le flot sanguin.
 Ils s'opposent aux vasodilatateurs.
@@ -512,14 +524,16 @@
           <t>Rhume</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Des vasoconstricteurs comme la pseudoéphédrine sont proposés en automédication contre les symptômes du rhume, généralement associés au paracétamol ou à l'ibuprofène ainsi qu'à un antihistaminique comme la cétirizine.
-L’Agence nationale de sécurité du médicament rappelle les risques inhérents à ces médicaments[1]. Outre les risques de surdosage :
+L’Agence nationale de sécurité du médicament rappelle les risques inhérents à ces médicaments. Outre les risques de surdosage :
 ils ne doivent pas être pris en cas de grossesse ou d’allaitement ;
 ils ne doivent pas être administrés aux enfants de moins de 15 ans ;
 la durée du traitement ne doit pas dépasser 5 jours ;
-ils peuvent présenter des risques rares mais graves d'AVC ou d'infarctus du myocarde[2].</t>
+ils peuvent présenter des risques rares mais graves d'AVC ou d'infarctus du myocarde.</t>
         </is>
       </c>
     </row>
@@ -549,21 +563,129 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Présentation
-On utilise l'adrénaline, la noradrénaline et la corbadrine (en). C'est un élément indispensable dans l'ampoule d'anesthésique car le pouvoir initial vasoconstricteur de la molécule est très important.
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On utilise l'adrénaline, la noradrénaline et la corbadrine (en). C'est un élément indispensable dans l'ampoule d'anesthésique car le pouvoir initial vasoconstricteur de la molécule est très important.
 Le plus utilisé, l'adrénaline, a un effet vasoconstricteur sur les récepteurs alpha et un effet vasodilatateur sur les récepteurs bêta. Un problème qui est souvent rencontré en odontologie est la prise de bêta-bloquant par les patients. Ces bêta-bloquants bloquent la fonction vasodilatatrice postopératoire de l'adrénaline. Ils vont également diminuer la circulation hépatique donc la biotransformation hépatique de la molécule sera diminuée.
-Action locale
-Diminution de la vitesse de résorption (donc on va pouvoir utiliser moins d'anesthésique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vasoconstricteur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vasoconstricteur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les vasoconstricteurs dans l'anesthésie dentaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Action locale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Diminution de la vitesse de résorption (donc on va pouvoir utiliser moins d'anesthésique)
 Diminution des saignements (augmentation de la durée d'action)
-Diminution de la toxicité (comme on en met moins)
-Contre-indications absolues
-Patient irradié dans la zone d'injection (pour traiter un lymphome de la cavité buccale par exemple). Le vasoconstricteur diminue la vascularisation or l'os est en survie ici à cause des rayons, s'il n'est plus vascularisé, il part en nécrose.
+Diminution de la toxicité (comme on en met moins)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vasoconstricteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vasoconstricteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les vasoconstricteurs dans l'anesthésie dentaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Contre-indications absolues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Patient irradié dans la zone d'injection (pour traiter un lymphome de la cavité buccale par exemple). Le vasoconstricteur diminue la vascularisation or l'os est en survie ici à cause des rayons, s'il n'est plus vascularisé, il part en nécrose.
 Prise de cocaïne
 L'asthme cortico-dépendant (à cause des allergies aux sulfites)
 Phéochromocytome
-Diabète non équilibré (nécroses locales)
-Contre-indications relatives
-La recommandation maximale est de 40 microgrammes, ce qui correspond à au moins 4 carpules de 1,8 ml à 1/200000e d'anesthésique.
+Diabète non équilibré (nécroses locales)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vasoconstricteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vasoconstricteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les vasoconstricteurs dans l'anesthésie dentaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contre-indications relatives</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recommandation maximale est de 40 microgrammes, ce qui correspond à au moins 4 carpules de 1,8 ml à 1/200000e d'anesthésique.
 </t>
         </is>
       </c>
